--- a/Friobom/Engineering/data/excel_files/3809-227_F.xlsx
+++ b/Friobom/Engineering/data/excel_files/3809-227_F.xlsx
@@ -582,22 +582,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>87.69199999999999</v>
+        <v>86.505</v>
       </c>
       <c r="E2" t="n">
-        <v>2604</v>
+        <v>2736</v>
       </c>
       <c r="F2" t="n">
-        <v>2736</v>
+        <v>2676</v>
       </c>
       <c r="G2" t="n">
-        <v>2676</v>
+        <v>2460</v>
       </c>
       <c r="H2" t="n">
-        <v>2244</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10260</v>
+        <v>7872</v>
       </c>
       <c r="J2" t="n">
         <v>16</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1884</v>
+        <v>1668</v>
       </c>
       <c r="N2" t="n">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -621,34 +621,34 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1668</v>
+        <v>1594</v>
       </c>
       <c r="R2" t="n">
-        <v>19.02</v>
+        <v>18.43</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>45231</v>
       </c>
       <c r="V2" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="W2" t="n">
         <v>6660</v>
       </c>
       <c r="X2" t="n">
-        <v>13320</v>
+        <v>6660</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>7310.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>94.154</v>
+        <v>90.593</v>
       </c>
       <c r="E3" t="n">
-        <v>2964</v>
+        <v>2544</v>
       </c>
       <c r="F3" t="n">
-        <v>2544</v>
+        <v>3096</v>
       </c>
       <c r="G3" t="n">
-        <v>3096</v>
+        <v>2604</v>
       </c>
       <c r="H3" t="n">
-        <v>2532</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11136</v>
+        <v>8244</v>
       </c>
       <c r="J3" t="n">
         <v>16</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1608</v>
+        <v>1536</v>
       </c>
       <c r="N3" t="n">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1512</v>
+        <v>1307</v>
       </c>
       <c r="R3" t="n">
-        <v>16.06</v>
+        <v>14.43</v>
       </c>
       <c r="S3" s="2" t="n">
         <v>45288</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>45231</v>
       </c>
       <c r="V3" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="W3" t="n">
         <v>7020</v>
       </c>
       <c r="X3" t="n">
-        <v>14400</v>
+        <v>7380</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>8386.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>81.026</v>
+        <v>85.58199999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>1812</v>
+        <v>2700</v>
       </c>
       <c r="F4" t="n">
-        <v>2700</v>
+        <v>2604</v>
       </c>
       <c r="G4" t="n">
-        <v>2604</v>
+        <v>2484</v>
       </c>
       <c r="H4" t="n">
-        <v>2376</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9492</v>
+        <v>7788</v>
       </c>
       <c r="J4" t="n">
         <v>16</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>756</v>
+        <v>648</v>
       </c>
       <c r="N4" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -785,34 +785,34 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>624</v>
+        <v>527</v>
       </c>
       <c r="R4" t="n">
-        <v>7.7</v>
+        <v>6.16</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>45288</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>45231</v>
       </c>
       <c r="V4" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="W4" t="n">
         <v>5400</v>
       </c>
       <c r="X4" t="n">
-        <v>12600</v>
+        <v>7200</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>7975.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>45.931</v>
+        <v>46.267</v>
       </c>
       <c r="E5" t="n">
-        <v>1164</v>
+        <v>1236</v>
       </c>
       <c r="F5" t="n">
-        <v>1236</v>
+        <v>1488</v>
       </c>
       <c r="G5" t="n">
-        <v>1488</v>
+        <v>1440</v>
       </c>
       <c r="H5" t="n">
-        <v>1440</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5328</v>
+        <v>4164</v>
       </c>
       <c r="J5" t="n">
         <v>16</v>
@@ -858,7 +858,7 @@
         <v>456</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -867,34 +867,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="R5" t="n">
-        <v>9.93</v>
+        <v>8.56</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>45287</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="V5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W5" t="n">
         <v>972</v>
       </c>
       <c r="X5" t="n">
-        <v>7300</v>
+        <v>4960</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4773.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>21.81</v>
+        <v>24.703</v>
       </c>
       <c r="E6" t="n">
-        <v>313</v>
+        <v>472</v>
       </c>
       <c r="F6" t="n">
-        <v>472</v>
+        <v>819</v>
       </c>
       <c r="G6" t="n">
-        <v>819</v>
+        <v>957</v>
       </c>
       <c r="H6" t="n">
-        <v>936</v>
+        <v>26</v>
       </c>
       <c r="I6" t="n">
-        <v>2540</v>
+        <v>2274</v>
       </c>
       <c r="J6" t="n">
         <v>16</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="N6" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>221</v>
+        <v>147</v>
       </c>
       <c r="R6" t="n">
-        <v>10.13</v>
+        <v>5.95</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -964,19 +964,19 @@
         <v>45268</v>
       </c>
       <c r="V6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>3400</v>
+        <v>2280</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>10139.29</v>
+        <v>282.1</v>
       </c>
     </row>
     <row r="7">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.75</v>
+        <v>16.744</v>
       </c>
       <c r="E7" t="n">
-        <v>236</v>
+        <v>360</v>
       </c>
       <c r="F7" t="n">
-        <v>360</v>
+        <v>566</v>
       </c>
       <c r="G7" t="n">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="H7" t="n">
-        <v>559</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>1721</v>
+        <v>1517</v>
       </c>
       <c r="J7" t="n">
         <v>16</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="N7" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>0.24</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1046,19 +1046,19 @@
         <v>45268</v>
       </c>
       <c r="V7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W7" t="n">
         <v>496</v>
       </c>
       <c r="X7" t="n">
-        <v>2468</v>
+        <v>1740</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>6089.01</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="8">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10.295</v>
+        <v>10.604</v>
       </c>
       <c r="E8" t="n">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="F8" t="n">
-        <v>263</v>
+        <v>334</v>
       </c>
       <c r="G8" t="n">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="H8" t="n">
-        <v>368</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>1165</v>
+        <v>978</v>
       </c>
       <c r="J8" t="n">
         <v>16</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1128,19 +1128,19 @@
         <v>45268</v>
       </c>
       <c r="V8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W8" t="n">
         <v>200</v>
       </c>
       <c r="X8" t="n">
-        <v>1632</v>
+        <v>1120</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>4028.91</v>
+        <v>144.34</v>
       </c>
     </row>
     <row r="9">
@@ -1156,37 +1156,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>38.2</v>
+        <v>36.369</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>1236</v>
       </c>
       <c r="G9" t="n">
-        <v>1236</v>
+        <v>828</v>
       </c>
       <c r="H9" t="n">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2292</v>
+        <v>2364</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1584</v>
+        <v>1512</v>
       </c>
       <c r="N9" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1195,22 +1195,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1512</v>
+        <v>1416</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58</v>
+        <v>38.93</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="V9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W9" t="n">
         <v>1980</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>2539.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1238,37 +1238,37 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>44.522</v>
+        <v>42.649</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F10" t="n">
-        <v>336</v>
+        <v>1332</v>
       </c>
       <c r="G10" t="n">
-        <v>1332</v>
+        <v>1488</v>
       </c>
       <c r="H10" t="n">
-        <v>1416</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>3084</v>
+        <v>3156</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>768</v>
+        <v>696</v>
       </c>
       <c r="N10" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>672</v>
+        <v>588</v>
       </c>
       <c r="R10" t="n">
-        <v>15.09</v>
+        <v>13.79</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>45288</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U10" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="V10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W10" t="n">
         <v>972</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>4449.18</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
